--- a/resources/documents/placeholder_mat.xlsx
+++ b/resources/documents/placeholder_mat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA05FEB6-93A6-42B9-9A43-11D0A1A968DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D371B58E-EB3E-4229-8220-FF0C7CE47685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Input Data</t>
   </si>
@@ -35,12 +35,18 @@
     <t>Output Data</t>
   </si>
   <si>
-    <t>Quote</t>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Tool</t>
   </si>
   <si>
     <t>Job Type</t>
   </si>
   <si>
+    <t>Combo</t>
+  </si>
+  <si>
     <t>Part Length</t>
   </si>
   <si>
@@ -56,10 +62,28 @@
     <t>Precision</t>
   </si>
   <si>
+    <t>Block Length</t>
+  </si>
+  <si>
+    <t>Block Width</t>
+  </si>
+  <si>
+    <t>Block Height</t>
+  </si>
+  <si>
     <t>Estimated Volume</t>
   </si>
   <si>
-    <t>Estimated Cost</t>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Cutting</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -86,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,6 +147,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -150,26 +198,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,74 +538,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
